--- a/biology/Microbiologie/Lentisphaeria/Lentisphaeria.xlsx
+++ b/biology/Microbiologie/Lentisphaeria/Lentisphaeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lentisphaeria sont une classe de bactéries de l'embranchement des Lentisphaerota. Son nom provient de Lentisphaerales qui est l'ordre type de cette classe.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classe est proposée en 2010 par JC. Cho et al. dans la deuxième édition du Bergey's Manual of Systematic Bacteriology[2]. Elle est validée deux ans plus tard par une publication dans l'IJSEM[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe est proposée en 2010 par JC. Cho et al. dans la deuxième édition du Bergey's Manual of Systematic Bacteriology. Elle est validée deux ans plus tard par une publication dans l'IJSEM.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (19 novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (19 novembre 2022) :
 Lentisphaerales Cho et al. 2004
 Victivallales Cho et al. 2004</t>
         </is>
